--- a/Test Documentation.xlsx
+++ b/Test Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\School\Fall 2020\ITMD-321\FINAL PROJECT\[DATA]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241C0C6-015A-46DD-928B-CC663213E2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32F64F-1CB2-4265-8DBF-CF51117A8BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1530" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="137">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>INTERNAL SECURITY ALERT IS DISTRIBUTED ACROSS SOFTWARE</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -647,7 +644,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -657,70 +653,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1017,50 +1014,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1076,10 +1073,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="13"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1104,29 +1101,29 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="37">
+      <c r="E6" s="25"/>
+      <c r="F6" s="30">
         <v>44166</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -1145,102 +1142,102 @@
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="3"/>
       <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="3"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="3"/>
       <c r="F11" s="11">
         <v>3</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="3"/>
       <c r="F12" s="11">
         <v>4</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1273,40 +1270,40 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
@@ -1315,21 +1312,21 @@
       <c r="B18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
@@ -1338,21 +1335,21 @@
       <c r="B19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
@@ -1361,21 +1358,21 @@
       <c r="B20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
@@ -1384,21 +1381,21 @@
       <c r="B21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
@@ -1407,21 +1404,21 @@
       <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
@@ -1430,21 +1427,21 @@
       <c r="B23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
+      <c r="F23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
@@ -1453,21 +1450,21 @@
       <c r="B24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="14" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
+      <c r="F24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
@@ -1476,21 +1473,21 @@
       <c r="B25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="14" t="s">
         <v>81</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
+      <c r="F25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
@@ -1499,21 +1496,21 @@
       <c r="B26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="14" t="s">
         <v>83</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
+      <c r="F26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
@@ -1522,21 +1519,21 @@
       <c r="B27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
+      <c r="F27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
@@ -1545,21 +1542,21 @@
       <c r="B28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="14" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
+      <c r="F28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
@@ -1568,21 +1565,21 @@
       <c r="B29" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="14" t="s">
         <v>89</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
+      <c r="F29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
@@ -1591,21 +1588,21 @@
       <c r="B30" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
+      <c r="F30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
@@ -1614,21 +1611,21 @@
       <c r="B31" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
+      <c r="F31" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
@@ -1637,21 +1634,21 @@
       <c r="B32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="14" t="s">
         <v>95</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
+      <c r="F32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
@@ -1660,21 +1657,21 @@
       <c r="B33" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="19"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
+      <c r="F33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
@@ -1683,21 +1680,21 @@
       <c r="B34" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
+      <c r="F34" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
@@ -1706,21 +1703,21 @@
       <c r="B35" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
+      <c r="F35" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
@@ -1729,21 +1726,21 @@
       <c r="B36" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="14" t="s">
         <v>101</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18"/>
+      <c r="F36" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
@@ -1752,21 +1749,21 @@
       <c r="B37" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
+      <c r="F37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
@@ -1775,21 +1772,21 @@
       <c r="B38" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="14" t="s">
         <v>105</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18"/>
+      <c r="F38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
@@ -1798,21 +1795,21 @@
       <c r="B39" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E39" s="14"/>
-      <c r="F39" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18"/>
+      <c r="F39" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
     </row>
     <row r="40" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
@@ -1821,21 +1818,21 @@
       <c r="B40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="14" t="s">
         <v>109</v>
       </c>
       <c r="E40" s="14"/>
-      <c r="F40" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18"/>
+      <c r="F40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
     </row>
     <row r="41" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
@@ -1844,21 +1841,21 @@
       <c r="B41" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="14" t="s">
         <v>114</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="18"/>
+      <c r="F41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
     </row>
     <row r="42" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
@@ -1867,21 +1864,21 @@
       <c r="B42" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="14" t="s">
         <v>112</v>
       </c>
       <c r="E42" s="14"/>
-      <c r="F42" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="18"/>
+      <c r="F42" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
     </row>
     <row r="43" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
@@ -1890,21 +1887,21 @@
       <c r="B43" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="19"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="14" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="14"/>
-      <c r="F43" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="18"/>
+      <c r="F43" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
@@ -1913,21 +1910,21 @@
       <c r="B44" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="14" t="s">
         <v>121</v>
       </c>
       <c r="E44" s="14"/>
-      <c r="F44" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18"/>
+      <c r="F44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
@@ -1936,21 +1933,21 @@
       <c r="B45" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="14" t="s">
         <v>123</v>
       </c>
       <c r="E45" s="14"/>
-      <c r="F45" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="18"/>
+      <c r="F45" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="17"/>
     </row>
     <row r="46" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
@@ -1959,21 +1956,21 @@
       <c r="B46" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="14" t="s">
         <v>119</v>
       </c>
       <c r="E46" s="14"/>
-      <c r="F46" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="18"/>
+      <c r="F46" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
@@ -1982,21 +1979,21 @@
       <c r="B47" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="14" t="s">
         <v>125</v>
       </c>
       <c r="E47" s="14"/>
-      <c r="F47" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="18"/>
+      <c r="F47" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
@@ -2005,21 +2002,21 @@
       <c r="B48" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="19"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="14" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="14"/>
-      <c r="F48" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="18"/>
+      <c r="F48" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
@@ -2028,21 +2025,21 @@
       <c r="B49" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="14" t="s">
         <v>129</v>
       </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="18"/>
+      <c r="F49" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
@@ -2051,21 +2048,21 @@
       <c r="B50" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="14" t="s">
         <v>131</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="18"/>
+      <c r="F50" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
@@ -2074,21 +2071,21 @@
       <c r="B51" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="14" t="s">
         <v>133</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="18"/>
+      <c r="F51" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
@@ -2097,24 +2094,169 @@
       <c r="B52" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="14" t="s">
         <v>136</v>
       </c>
       <c r="E52" s="14"/>
-      <c r="F52" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="18"/>
+      <c r="F52" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F21:H21"/>
@@ -2139,151 +2281,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:K51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
